--- a/AAII_Financials/Quarterly/EVCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EVCC_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5612F3-4D88-403B-BA69-BCB4190F0300}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="EVCC" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>EVCC</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,70 +654,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -783,8 +755,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,8 +793,14 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,8 +831,14 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,19 +923,25 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-100</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>-200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -951,14 +955,20 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -989,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,40 +1016,48 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>-100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1044,28 +1068,34 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,8 +1108,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1108,10 +1140,16 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1142,8 +1180,14 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1153,20 +1197,20 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1174,40 +1218,52 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1238,8 +1294,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1270,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1366,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1398,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1430,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1462,8 +1560,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1492,42 +1596,54 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1558,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1641,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1655,57 +1791,65 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>300</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>600</v>
-      </c>
-      <c r="F42" s="3">
-        <v>600</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
+        <v>800</v>
+      </c>
+      <c r="H42" s="3">
+        <v>800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -1719,19 +1863,25 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>600</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -1751,8 +1901,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1783,19 +1939,25 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>300</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -1809,32 +1971,38 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
-        <v>800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>800</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -1847,8 +2015,14 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1879,8 +2053,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1911,8 +2091,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1943,8 +2129,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2007,8 +2205,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2039,8 +2243,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2071,26 +2281,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
-        <v>800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -2103,8 +2319,14 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2117,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2131,48 +2355,56 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2195,19 +2427,25 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
+        <v>700</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -2216,10 +2454,10 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2227,40 +2465,52 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
+        <v>300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>300</v>
+      </c>
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
-        <v>200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2291,8 +2541,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2323,8 +2579,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2355,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2387,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2419,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
+        <v>300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>300</v>
+      </c>
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
-        <v>200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2465,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2497,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2529,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2561,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2593,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-400</v>
-      </c>
-      <c r="E72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3">
         <v>-600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I72" s="3">
         <v>-500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-300</v>
       </c>
-      <c r="I72" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2657,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2689,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2721,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>500</v>
+        <v>-1400</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F76" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G76" s="3">
+        <v>700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>800</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2785,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2868,8 +3228,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2900,8 +3262,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2932,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2964,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2996,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3028,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3060,8 +3452,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3072,14 +3470,14 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -3092,8 +3490,14 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3106,8 +3510,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3138,8 +3544,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3170,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3202,8 +3620,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3234,8 +3658,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3248,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3280,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3312,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3344,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3376,22 +3826,28 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
@@ -3402,14 +3858,20 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3440,26 +3902,32 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>400</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -3470,6 +3938,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EVCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EVCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>EVCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,74 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
-        <v>43281</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43190</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,8 +769,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,35 +980,41 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,8 +1070,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1030,34 +1084,40 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>-100</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1068,34 +1128,40 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1146,10 +1214,16 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1186,8 +1260,14 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1197,26 +1277,26 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1224,8 +1304,14 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1236,34 +1322,40 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,8 +1436,14 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1350,34 +1454,40 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1388,34 +1498,40 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1602,10 +1742,16 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1616,34 +1762,40 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,8 +1832,14 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1692,77 +1850,89 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
-        <v>43281</v>
-      </c>
-      <c r="H38" s="2">
-        <v>43190</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>300</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1845,11 +2025,11 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>800</v>
-      </c>
-      <c r="H42" s="3">
-        <v>800</v>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -1869,8 +2049,14 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1880,21 +2066,21 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -1907,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1956,59 +2154,65 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
+      <c r="E46" s="3">
+        <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2225,14 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,8 +2269,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2097,8 +2313,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,32 +2533,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>4</v>
+      <c r="E54" s="3">
+        <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2325,8 +2577,14 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,66 +2617,74 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
+      <c r="E57" s="3">
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>600</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2433,84 +2701,102 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+      <c r="E59" s="3">
+        <v>700</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
-        <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
+      <c r="E60" s="3">
+        <v>1400</v>
       </c>
       <c r="F60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
-        <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2833,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
+      <c r="E66" s="3">
+        <v>1400</v>
       </c>
       <c r="F66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
-        <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>300</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
         <v>-3100</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
+      <c r="E72" s="3">
+        <v>-3100</v>
       </c>
       <c r="F72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3">
         <v>-600</v>
       </c>
-      <c r="G72" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
         <v>-1400</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>4</v>
+      <c r="E76" s="3">
+        <v>-1400</v>
       </c>
       <c r="F76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
-        <v>700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>800</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,51 +3511,63 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
-        <v>43281</v>
-      </c>
-      <c r="H80" s="2">
-        <v>43190</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3188,34 +3578,40 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3886,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3473,11 +3907,11 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -3496,8 +3930,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3844,34 +4336,40 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,32 +4406,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -3944,6 +4448,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EVCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EVCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>EVCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,12 +1011,12 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1007,14 +1026,17 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,13 +1097,14 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1096,11 +1122,11 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>-100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1108,16 +1134,19 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1140,11 +1169,11 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1152,16 +1181,19 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,10 +1253,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1289,8 +1328,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1298,8 +1337,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1310,13 +1349,16 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1334,11 +1376,11 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1346,16 +1388,19 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,13 +1490,16 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1466,11 +1517,11 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1478,21 +1529,24 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1510,11 +1564,11 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1522,16 +1576,19 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1748,15 +1817,18 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1774,11 +1846,11 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1786,16 +1858,19 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,13 +1913,16 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1862,11 +1940,11 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -1874,65 +1952,71 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1981,8 +2067,8 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>4</v>
@@ -1990,52 +2076,55 @@
       <c r="I41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2078,12 +2170,12 @@
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2166,12 +2264,12 @@
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2181,14 +2279,17 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2201,8 +2302,8 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
+      <c r="G46" s="3">
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>4</v>
@@ -2210,12 +2311,12 @@
       <c r="I46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2553,8 +2678,8 @@
       <c r="F54" s="3">
         <v>0</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
+      <c r="G54" s="3">
+        <v>0</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>4</v>
@@ -2562,12 +2687,12 @@
       <c r="I54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3">
         <v>1400</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +2748,14 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -2633,8 +2763,8 @@
       <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3">
+        <v>100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
@@ -2642,8 +2772,8 @@
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -2652,24 +2782,27 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -2677,8 +2810,8 @@
       <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2686,8 +2819,8 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2707,13 +2840,16 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
@@ -2721,8 +2857,8 @@
       <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3">
+        <v>700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
@@ -2730,17 +2866,17 @@
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2751,13 +2887,16 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>1400</v>
+      <c r="D60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E60" s="3">
         <v>1400</v>
@@ -2765,8 +2904,8 @@
       <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
+      <c r="G60" s="3">
+        <v>1400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
@@ -2774,29 +2913,32 @@
       <c r="I60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,13 +3169,16 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>1400</v>
@@ -3029,8 +3186,8 @@
       <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
+      <c r="G66" s="3">
+        <v>1400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>4</v>
@@ -3038,29 +3195,32 @@
       <c r="I66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
         <v>100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
       </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,13 +3423,16 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3100</v>
+        <v>-2800</v>
       </c>
       <c r="E72" s="3">
         <v>-3100</v>
@@ -3267,8 +3440,8 @@
       <c r="F72" s="3">
         <v>-3100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
+      <c r="G72" s="3">
+        <v>-3100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
@@ -3276,29 +3449,32 @@
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>-600</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-500</v>
       </c>
       <c r="L72" s="3">
         <v>-500</v>
       </c>
       <c r="M72" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="N72" s="3">
         <v>-300</v>
       </c>
       <c r="O72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,13 +3611,16 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1400</v>
+        <v>-600</v>
       </c>
       <c r="E76" s="3">
         <v>-1400</v>
@@ -3443,8 +3628,8 @@
       <c r="F76" s="3">
         <v>-1400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
+      <c r="G76" s="3">
+        <v>-1400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>4</v>
@@ -3452,29 +3637,32 @@
       <c r="I76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3">
         <v>1300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
       </c>
       <c r="M76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
       </c>
       <c r="O76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,62 +3705,68 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3590,11 +3784,11 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3602,16 +3796,19 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3910,11 +4126,11 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4348,11 +4593,11 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4362,14 +4607,17 @@
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,14 +4672,14 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4436,11 +4687,11 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EVCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EVCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>EVCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,19 +1022,25 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1014,29 +1054,35 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,19 +1150,21 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1125,28 +1179,34 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>-100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1157,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1172,28 +1232,34 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1256,10 +1324,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1379,14 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1331,20 +1411,20 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1352,20 +1432,26 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1379,28 +1465,34 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,19 +1591,25 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1520,39 +1624,45 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1567,28 +1677,34 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1820,21 +1960,27 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1849,28 +1995,34 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,19 +2068,25 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -1943,80 +2101,92 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2070,38 +2244,44 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2126,11 +2306,11 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
@@ -2147,41 +2327,47 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,55 +2433,67 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2305,24 +2509,24 @@
       <c r="G46" s="3">
         <v>0</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2335,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2681,24 +2933,24 @@
       <c r="G54" s="3">
         <v>0</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -2711,8 +2963,14 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2758,46 +3020,52 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2805,28 +3073,28 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2843,102 +3111,120 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>500</v>
       </c>
       <c r="E60" s="3">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="F60" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
+      <c r="H60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1400</v>
       </c>
       <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
+      <c r="H66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-3100</v>
       </c>
       <c r="G72" s="3">
         <v>-3100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
+      <c r="H72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-3100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>-600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1400</v>
       </c>
       <c r="G76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
+      <c r="H76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-1400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,71 +4086,83 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -3787,28 +4177,34 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4129,14 +4563,14 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4596,28 +5088,34 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4675,29 +5179,29 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>
